--- a/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
+++ b/Companies/Trading/Adani Enterprises Ltd/Pruned_Excel/4_Jun17_Jun18.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '17</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '17</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '18</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '18</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '18</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '17</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '17</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '17</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>3,023.85</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2,406.12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,890.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2,798.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2,686.51</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2,798.87</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2,890.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2,406.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3,023.85</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3023.85</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2406.12</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>2761.182</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>3,023.85</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2,406.12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2,890.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2,798.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>2,686.51</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2,798.87</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2,890.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2,406.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3,023.85</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>3023.85</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>2406.12</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>2761.182</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2,599.95</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2,303.16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,455.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2,691.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>1,886.17</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2,691.56</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2,455.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2,303.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2,599.95</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>2691.56</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1886.17</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>2387.174</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>30.64</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-228.55</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-46.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-502.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>285.54</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-502.86</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-46.62</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-228.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>30.64</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>285.54</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-502.86</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>-92.37</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>65.27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>67.95</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>52.03</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>50.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>67.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>65.27</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>67.95</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>50.49</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>60.658</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>21.55</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.65</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>20.58</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>23.35</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>21.792</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>231.48</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>184.69</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>202.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>266.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>366.13</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>266.17</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>202.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>184.69</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>231.48</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>366.13</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>184.69</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>250.112</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>75.93</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>58.44</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>206.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>268.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>59.17</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>268.62</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>206.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>58.44</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>75.93</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>268.62</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>58.44</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>133.816</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>121.80</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>117.16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>118.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>259.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>88.16</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>259.17</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>118.34</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>117.16</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>121.80</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>259.17</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>88.16</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>140.926</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>197.73</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>175.60</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>325.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>527.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>147.33</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>527.79</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>325.26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>175.60</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>197.73</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>527.79</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>147.33</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>274.742</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>166.27</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>192.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>154.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>204.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>152.19</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>204.29</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>154.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>192.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>166.27</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>204.29</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>152.19</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>173.918</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-16.40</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>170.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>323.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>-4.86</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>323.50</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>170.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-16.40</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>31.46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>323.5</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>-16.4</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>100.824</v>
       </c>
     </row>
     <row r="16">
@@ -1009,32 +878,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>-181.05</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>-181.05</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-181.05</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>-181.05</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-16.40</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>170.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>142.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>-4.86</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>142.45</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>170.42</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-16.40</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>31.46</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>170.42</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-16.4</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>64.614</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2.30</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>51.46</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>41.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>51.46</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>25.84</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-16.40</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>129.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>-7.16</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>129.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-16.40</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>22.97</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>129.31</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-16.4</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>43.942</v>
       </c>
     </row>
     <row r="20">
@@ -1173,32 +1006,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>-29.83</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>-29.83</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-29.83</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>-29.83</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-16.40</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>129.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>-7.16</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>61.16</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>129.31</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-16.40</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>22.97</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>129.31</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>-16.4</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>37.976</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>109.98</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>109.98</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>109.98</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>109.98</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>-0.07</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0.346</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>-0.07</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.346</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>-0.07</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.346</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>-0.07</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.346</v>
       </c>
     </row>
     <row r="31"/>
